--- a/projeto-03/MTN_Nigeria_Customer_Churn.xlsx
+++ b/projeto-03/MTN_Nigeria_Customer_Churn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monte\Documents\AnaliseDeDados\projetos-excel\projeto-03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D5D73A-2AD7-44D7-9772-03A23A6417CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD573D96-616A-48D4-AC8A-E696A782DCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{C0BC0BE9-9D59-4DBF-B5C3-D0F23794E726}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{C0BC0BE9-9D59-4DBF-B5C3-D0F23794E726}"/>
   </bookViews>
   <sheets>
     <sheet name="mtn_customer_churn" sheetId="2" r:id="rId1"/>
@@ -10349,13 +10349,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>16096</xdr:rowOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>92296</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10378,7 +10378,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4772025" y="8924926"/>
+          <a:off x="4772025" y="9001126"/>
           <a:ext cx="3762375" cy="4807170"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -29368,6 +29368,471 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0C31F4F1-CF57-40F2-832B-FE5307A9D31F}" name="Tabela dinâmica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="4">
+  <location ref="B48:C70" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="22">
+        <item x="19"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="20"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="16"/>
+        <item x="18"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="14"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="17"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="22">
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Média de Satisfaction Rate" fld="7" subtotal="average" baseField="10" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E14506EC-BC35-4868-A228-165E44A59B22}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="12">
+  <location ref="B21:C43" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" nonAutoSortDefault="1">
+      <items count="6">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="22">
+        <item x="19"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="20"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="16"/>
+        <item x="18"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="14"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="17"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="22">
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Média de Customer Tenure in months" fld="9" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="8" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DA1595C7-3875-49FF-BF0F-9AAD728441B3}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="6">
+  <location ref="B4:C9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="36">
+        <item x="24"/>
+        <item x="1"/>
+        <item x="11"/>
+        <item x="29"/>
+        <item x="13"/>
+        <item x="8"/>
+        <item x="26"/>
+        <item x="18"/>
+        <item x="21"/>
+        <item x="14"/>
+        <item x="27"/>
+        <item x="22"/>
+        <item x="25"/>
+        <item x="20"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="23"/>
+        <item x="17"/>
+        <item x="33"/>
+        <item x="10"/>
+        <item x="15"/>
+        <item x="0"/>
+        <item x="34"/>
+        <item x="30"/>
+        <item x="32"/>
+        <item x="9"/>
+        <item x="16"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="19"/>
+        <item x="2"/>
+        <item x="31"/>
+        <item x="12"/>
+        <item x="28"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Média de Satisfaction Rate" fld="7" subtotal="average" baseField="5" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2A566D29-086A-4089-A865-168325591B9D}" name="Tabela dinâmica7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="8">
   <location ref="B124:C132" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="17">
@@ -29579,7 +30044,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{853C7B23-CDF9-47D8-98B0-B75802202C9B}" name="Tabela dinâmica6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="4">
   <location ref="B109:C115" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="17">
@@ -29683,7 +30148,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58655BE6-4B09-4DEE-B976-30DE05AE8B18}" name="Tabela dinâmica4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="4">
   <location ref="B78:C100" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
@@ -29815,471 +30280,6 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Média de Number of Times Purchased" fld="12" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0C31F4F1-CF57-40F2-832B-FE5307A9D31F}" name="Tabela dinâmica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="4">
-  <location ref="B48:C70" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="22">
-        <item x="19"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="20"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="16"/>
-        <item x="18"/>
-        <item x="15"/>
-        <item x="6"/>
-        <item x="14"/>
-        <item x="11"/>
-        <item x="4"/>
-        <item x="17"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="22">
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Média de Satisfaction Rate" fld="7" subtotal="average" baseField="10" baseItem="0" numFmtId="2"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E14506EC-BC35-4868-A228-165E44A59B22}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="12">
-  <location ref="B21:C43" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" nonAutoSortDefault="1">
-      <items count="6">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="22">
-        <item x="19"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="20"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="16"/>
-        <item x="18"/>
-        <item x="15"/>
-        <item x="6"/>
-        <item x="14"/>
-        <item x="11"/>
-        <item x="4"/>
-        <item x="17"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="22">
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Média de Customer Tenure in months" fld="9" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="8" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DA1595C7-3875-49FF-BF0F-9AAD728441B3}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="6">
-  <location ref="B4:C9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="36">
-        <item x="24"/>
-        <item x="1"/>
-        <item x="11"/>
-        <item x="29"/>
-        <item x="13"/>
-        <item x="8"/>
-        <item x="26"/>
-        <item x="18"/>
-        <item x="21"/>
-        <item x="14"/>
-        <item x="27"/>
-        <item x="22"/>
-        <item x="25"/>
-        <item x="20"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="23"/>
-        <item x="17"/>
-        <item x="33"/>
-        <item x="10"/>
-        <item x="15"/>
-        <item x="0"/>
-        <item x="34"/>
-        <item x="30"/>
-        <item x="32"/>
-        <item x="9"/>
-        <item x="16"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="19"/>
-        <item x="2"/>
-        <item x="31"/>
-        <item x="12"/>
-        <item x="28"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Média de Satisfaction Rate" fld="7" subtotal="average" baseField="5" baseItem="0" numFmtId="2"/>
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="0" format="0" series="1">
@@ -82398,8 +82398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DC2DED-F8AF-4F9C-8826-851D82967EE4}">
   <dimension ref="B2:C12"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -82518,7 +82518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17678736-879E-4039-8142-6DB5894740FA}">
   <dimension ref="B2:C132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="B124" sqref="B124:C131"/>
     </sheetView>
   </sheetViews>
@@ -83337,8 +83337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668CEA00-4133-43F3-BBA9-8AF6E3EBED32}">
   <dimension ref="B2:I128"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A118" sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
